--- a/information.xlsx
+++ b/information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,26 +523,26 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -552,11 +552,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
         <v>20190001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -566,14 +566,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
         <v>20181497</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -583,11 +583,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
         <v>20190002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -597,11 +597,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>20190003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -611,14 +611,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
         <v>20186551</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -628,14 +628,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
         <v>20162115</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -645,11 +645,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
         <v>20190004</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -659,11 +659,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>20190005</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -673,11 +673,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
         <v>20190006</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -687,11 +687,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
         <v>20190007</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
